--- a/commercial measures/SWHC027-08 Package Terminal ACHP/SWHC027-08 Package Terminal ACHP_Htl_Ex/coil_list.xlsx
+++ b/commercial measures/SWHC027-08 Package Terminal ACHP/SWHC027-08 Package Terminal ACHP_Htl_Ex/coil_list.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEER Models\T24 Code Update\SWHC027-08\commercial measures\SWHC027-08 Package Terminal ACHP\SWHC027-08 Package Terminal ACHP_Htl_Ex\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623055C0-7236-4E08-800F-DE2351842DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="14295" yWindow="-16200" windowWidth="14610" windowHeight="15585" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -20,133 +36,100 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
-  <si>
-    <t xml:space="preserve">coil type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">building type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cooling coil name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZ-VAV-MAIN COOLING COIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MLI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZ-VAV-SYS5 COOLING COIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nrs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZ-VAV-L1 COOLING COIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OfL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZ-VAV-F2 COOLING COIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZ-VAV-F3 COOLING COIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OfS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HALL EL1 CORE SPC (G.C5) SZ-VAV COOLING COIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFICESMALL EL1 NORTH PERIM SPC (G.N3) SZ-VAV COOLING COIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFICESMALL EL1 EAST PERIM SPC (G.E2) SZ-VAV COOLING COIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFICESMALL EL1 SOUTH PERIM SPC (G.S1) SZ-VAV COOLING COIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFICESMALL EL1 WEST PERIM SPC (G.W4) SZ-VAV COOLING COIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HALL EL1 CORE SPC (T.C15) SZ-VAV COOLING COIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFICESMALL EL1 EAST PERIM SPC (T.E12) SZ-VAV COOLING COIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFICESMALL EL1 NORTH PERIM SPC (T.N13) SZ-VAV COOLING COIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFICESMALL EL1 SOUTH PERIM SPC (T.S11) SZ-VAV COOLING COIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFICESMALL EL1 WEST PERIM SPC (T.W14) SZ-VAV COOLING COIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DINING EL1 ESE PERIM SPC (G.ESE1) SZ-VAV COOLING COIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOBBYWAITING EL1 SSW PERIM SPC (G.SSW2) SZ-VAV COOLING COIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESTROOM EL1 NORTH PERIM SPC (G.N4) SZ-VAV COOLING COIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RtS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RETAILSALES EL1 SOUTH PERIM (G.S1) SZ-VAV COOLING COIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STOCKROOM EL1 NORTH PERIM (G.N2) SZ-VAV COOLING COIL</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="27">
+  <si>
+    <t>coil type</t>
+  </si>
+  <si>
+    <t>building type</t>
+  </si>
+  <si>
+    <t>cooling coil name</t>
+  </si>
+  <si>
+    <t>dx</t>
+  </si>
+  <si>
+    <t>BARCASINO EL2 NORTH PERIM SPC (G.N2) SZ-CAV COOLING COIL</t>
+  </si>
+  <si>
+    <t>BARCASINO EL3 NORTH PERIM SPC (G.N1) SZ-CAV COOLING COIL</t>
+  </si>
+  <si>
+    <t>CORRIDOR EL4 CORE SPC (G.C5) SZ-CAV COOLING COIL</t>
+  </si>
+  <si>
+    <t>CORRIDOR EL4 CORE SPC (M.C15) SZ-CAV COOLING COIL</t>
+  </si>
+  <si>
+    <t>CORRIDOR EL4 CORE SPC (T.C25) SZ-CAV COOLING COIL</t>
+  </si>
+  <si>
+    <t>DINING EL2 WEST PERIM SPC (G.W3) SZ-CAV COOLING COIL</t>
+  </si>
+  <si>
+    <t>DINING EL3 WEST PERIM SPC (G.W3) SZ-CAV COOLING COIL</t>
+  </si>
+  <si>
+    <t>LAUNDRY EL1 WEST PERIM SPC (G.W1) SZ-CAV COOLING COIL</t>
+  </si>
+  <si>
+    <t>LOBBY EL1 WEST PERIM SPC (G.W2) SZ-CAV COOLING COIL</t>
+  </si>
+  <si>
+    <t>OFFICE EL1 EAST PERIM SPC (G.E3) SZ-CAV COOLING COIL</t>
+  </si>
+  <si>
+    <t>GUESTRM EL4 NNE PERIM SPC (G.NNE3) SZ-CAV COOLING COIL</t>
+  </si>
+  <si>
+    <t>GUESTRM EL4 NNE PERIM SPC (M.NNE13) SZ-CAV COOLING COIL</t>
+  </si>
+  <si>
+    <t>GUESTRM EL4 NNE PERIM SPC (T.NNE23) SZ-CAV COOLING COIL</t>
+  </si>
+  <si>
+    <t>GUESTRM EL4 NORTH PERIM SPC (G.N1) SZ-CAV COOLING COIL</t>
+  </si>
+  <si>
+    <t>GUESTRM EL4 NORTH PERIM SPC (M.N11) SZ-CAV COOLING COIL</t>
+  </si>
+  <si>
+    <t>GUESTRM EL4 NORTH PERIM SPC (T.N21) SZ-CAV COOLING COIL</t>
+  </si>
+  <si>
+    <t>GUESTRM EL4 SOUTH PERIM SPC (G.S4) SZ-CAV COOLING COIL</t>
+  </si>
+  <si>
+    <t>GUESTRM EL4 SOUTH PERIM SPC (M.S14) SZ-CAV COOLING COIL</t>
+  </si>
+  <si>
+    <t>GUESTRM EL4 SOUTH PERIM SPC (T.S24) SZ-CAV COOLING COIL</t>
+  </si>
+  <si>
+    <t>GUESTRM EL4 SSW PERIM SPC (G.SSW2) SZ-CAV COOLING COIL</t>
+  </si>
+  <si>
+    <t>GUESTRM EL4 SSW PERIM SPC (M.SSW12) SZ-CAV COOLING COIL</t>
+  </si>
+  <si>
+    <t>GUESTRM EL4 SSW PERIM SPC (T.SSW22) SZ-CAV COOLING COIL</t>
+  </si>
+  <si>
+    <t>Htl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -158,7 +141,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -166,105 +149,77 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -296,7 +251,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -320,7 +275,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -380,294 +335,302 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="68.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.62"/>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="68.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="1" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="1" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="977ed3b4-dc53-4ccd-91b7-93b67a0eba97">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="63e8c1f7-1787-49b1-80e5-dcc3ae9ab6e9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100366A9EB7EB4E4F489A4515111482199D" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="db4c11ca1524f4dab84562af922705c9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="977ed3b4-dc53-4ccd-91b7-93b67a0eba97" xmlns:ns3="63e8c1f7-1787-49b1-80e5-dcc3ae9ab6e9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49dcd01241987285feedf33fb68cd0eb" ns2:_="" ns3:_="">
     <xsd:import namespace="977ed3b4-dc53-4ccd-91b7-93b67a0eba97"/>
@@ -916,7 +879,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -925,25 +888,40 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="977ed3b4-dc53-4ccd-91b7-93b67a0eba97">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="63e8c1f7-1787-49b1-80e5-dcc3ae9ab6e9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C793356-EF07-413F-8D70-1A41F14956B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="977ed3b4-dc53-4ccd-91b7-93b67a0eba97"/>
+    <ds:schemaRef ds:uri="63e8c1f7-1787-49b1-80e5-dcc3ae9ab6e9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA256F47-F75B-465B-8D4D-7AE387585A91}"/>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA256F47-F75B-465B-8D4D-7AE387585A91}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="977ed3b4-dc53-4ccd-91b7-93b67a0eba97"/>
+    <ds:schemaRef ds:uri="63e8c1f7-1787-49b1-80e5-dcc3ae9ab6e9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C53DED-152A-4CF6-8ABB-344A65C2B74B}"/>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C793356-EF07-413F-8D70-1A41F14956B4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C53DED-152A-4CF6-8ABB-344A65C2B74B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>